--- a/electives.xlsx
+++ b/electives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/study_kam/Documents/Haskell/iu-electives-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE6063B-8987-2E43-A159-4FC3D21B6683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BAFD6E-B3A9-0F47-BFBC-F0917BF3A1F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="278">
   <si>
     <t xml:space="preserve">20/01/2020 </t>
   </si>
@@ -2217,10 +2217,10 @@
   <dimension ref="A1:Z864"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="V68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E784" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y69" sqref="Y69"/>
+      <selection pane="bottomRight" activeCell="G787" sqref="G787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -27289,7 +27289,9 @@
       </c>
       <c r="E785" s="106"/>
       <c r="F785" s="106"/>
-      <c r="G785" s="132"/>
+      <c r="G785" s="57" t="s">
+        <v>105</v>
+      </c>
       <c r="H785" s="132"/>
       <c r="I785" s="132"/>
       <c r="J785" s="132"/>
@@ -27319,7 +27321,9 @@
       </c>
       <c r="E786" s="106"/>
       <c r="F786" s="106"/>
-      <c r="G786" s="132"/>
+      <c r="G786" s="57" t="s">
+        <v>105</v>
+      </c>
       <c r="H786" s="132"/>
       <c r="I786" s="132"/>
       <c r="J786" s="132"/>
@@ -27349,7 +27353,9 @@
       </c>
       <c r="E787" s="106"/>
       <c r="F787" s="106"/>
-      <c r="G787" s="132"/>
+      <c r="G787" s="57" t="s">
+        <v>105</v>
+      </c>
       <c r="H787" s="132"/>
       <c r="I787" s="132"/>
       <c r="J787" s="132"/>
@@ -27747,7 +27753,9 @@
       </c>
       <c r="E800" s="132"/>
       <c r="F800" s="132"/>
-      <c r="G800" s="132"/>
+      <c r="G800" s="57" t="s">
+        <v>105</v>
+      </c>
       <c r="H800" s="132"/>
       <c r="I800" s="132"/>
       <c r="J800" s="132"/>
@@ -27777,7 +27785,9 @@
       </c>
       <c r="E801" s="132"/>
       <c r="F801" s="132"/>
-      <c r="G801" s="132"/>
+      <c r="G801" s="57" t="s">
+        <v>105</v>
+      </c>
       <c r="H801" s="132"/>
       <c r="I801" s="132"/>
       <c r="J801" s="132"/>
@@ -27807,7 +27817,9 @@
       </c>
       <c r="E802" s="132"/>
       <c r="F802" s="132"/>
-      <c r="G802" s="132"/>
+      <c r="G802" s="57" t="s">
+        <v>105</v>
+      </c>
       <c r="H802" s="132"/>
       <c r="I802" s="132"/>
       <c r="J802" s="132"/>
